--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1676.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1676.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.385129793775837</v>
+        <v>2.994324922561646</v>
       </c>
       <c r="B1">
-        <v>2.501035587014632</v>
+        <v>2.73285174369812</v>
       </c>
       <c r="C1">
-        <v>2.082551356270507</v>
+        <v>1.846433997154236</v>
       </c>
       <c r="D1">
-        <v>1.916483429983129</v>
+        <v>1.491639375686646</v>
       </c>
       <c r="E1">
-        <v>1.637079730599426</v>
+        <v>1.382882833480835</v>
       </c>
     </row>
   </sheetData>
